--- a/xforms/xlsforms/deathToHOHform.xlsx
+++ b/xforms/xlsforms/deathToHOHform.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="171">
   <si>
     <t>type</t>
   </si>
@@ -520,6 +520,15 @@
   </si>
   <si>
     <t>if(${numHHmembers}&gt;1,${numHHmembers} -1,0)</t>
+  </si>
+  <si>
+    <t>processedByMirth</t>
+  </si>
+  <si>
+    <t>processed</t>
+  </si>
+  <si>
+    <t>1=2</t>
   </si>
 </sst>
 </file>
@@ -1715,10 +1724,10 @@
   <dimension ref="A1:R96"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="101" zoomScaleNormal="101" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="J11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="J23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A28" sqref="A28:XFD28"/>
+      <selection pane="bottomRight" activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2375,7 +2384,7 @@
       <c r="G32" s="2"/>
       <c r="I32" s="3"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>76</v>
       </c>
@@ -2389,16 +2398,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A34" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="L34" s="5" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -2407,7 +2424,7 @@
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -2416,7 +2433,7 @@
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -2425,7 +2442,7 @@
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -2434,7 +2451,7 @@
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -2443,7 +2460,7 @@
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -2453,7 +2470,7 @@
       <c r="G40" s="2"/>
       <c r="I40" s="3"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -2463,7 +2480,7 @@
       <c r="G41" s="2"/>
       <c r="I41" s="3"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -2473,7 +2490,7 @@
       <c r="G42" s="2"/>
       <c r="I42" s="3"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -2482,7 +2499,7 @@
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -2492,7 +2509,7 @@
       <c r="G44" s="2"/>
       <c r="I44" s="3"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="I48" s="3"/>
     </row>
     <row r="49" spans="9:9" x14ac:dyDescent="0.2">
